--- a/biology/Médecine/Examen_clinique/Examen_clinique.xlsx
+++ b/biology/Médecine/Examen_clinique/Examen_clinique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'examen clinique fait partie de l'examen médical ou psychologique qui permet au médecin, kinésithérapeute ou aux infirmiers en pratique avancée de décrire l'état d'un patient, ou d'un individu examiné par un psychologue, afin d'aboutir à un diagnostic à partir de données d'observations cliniques. Le mot clinique vient du latin signifiant « alité » ou « médecine exercée près du lit du malade ».
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au niveau sémiologique, il faut distinguer examen physique et examen clinique[réf. nécessaire]. 
 L'examen physique comporte les 4 moyens d'observations ; inspection, palpation, percussion et auscultation.
@@ -547,7 +561,9 @@
           <t>Étapes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'examen physique comprend plusieurs étapes dont les quatre techniques principalement utilisées sont :
 l'inspection : le clinicien observe le patient ;
@@ -595,7 +611,9 @@
           <t>Examen clinique général</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'examen clinique général comporte notamment la détermination : 
 du poids, et son évolution dans le temps ;
